--- a/spec/contabilidad/resources/catalogo/catalogo_template.xlsx
+++ b/spec/contabilidad/resources/catalogo/catalogo_template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="23260" yWindow="7120" windowWidth="24560" windowHeight="14640" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="23260" yWindow="7120" windowWidth="24560" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="4" r:id="rId1"/>
@@ -2855,9 +2855,6 @@
     <t>SubCuenta de</t>
   </si>
   <si>
-    <t>03</t>
-  </si>
-  <si>
     <t>DF-99281</t>
   </si>
   <si>
@@ -2865,6 +2862,9 @@
   </si>
   <si>
     <t>Ñ&amp;L8371</t>
+  </si>
+  <si>
+    <t>04</t>
   </si>
 </sst>
 </file>
@@ -3588,8 +3588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0"/>
@@ -3609,7 +3609,7 @@
         <v>919</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>920</v>
@@ -3633,7 +3633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
@@ -3674,7 +3674,7 @@
         <v>102</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>917</v>
@@ -3691,7 +3691,7 @@
         <v>101.01</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>914</v>
@@ -3711,7 +3711,7 @@
         <v>113.01</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>915</v>
